--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13050" windowWidth="28695"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>产品编号：</t>
   </si>
@@ -31,13 +31,13 @@
     <t>内部标记：</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>名称：</t>
   </si>
   <si>
     <t>多参数监护仪</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>序号</t>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>#将检验合格的成品入库1</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
 </sst>
 </file>
@@ -238,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,6 +251,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,47 +317,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,19 +357,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,6 +402,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,6 +450,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,84 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,21 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -686,26 +668,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +704,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -750,241 +747,241 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="26" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="25" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="25" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="18" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -998,10 +995,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1159,7 +1156,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1168,13 +1165,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1184,7 +1181,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1193,7 +1190,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1202,7 +1199,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1212,12 +1209,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1248,7 +1245,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1267,7 +1264,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1278,25 +1275,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="7.375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="8.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.5" collapsed="false"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:9">
+    <row r="1" ht="27" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,15 +1309,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1331,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1346,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -1360,28 +1359,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="4" spans="1:9">
+    <row r="4" ht="27" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1392,25 +1391,25 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="5" spans="1:9">
+    <row r="5" ht="40.5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1421,25 +1420,25 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="6" spans="1:9">
+    <row r="6" ht="27" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1450,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="7" spans="1:9">
+    <row r="7" ht="27" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1479,25 +1478,25 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="8" spans="1:9">
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1508,25 +1507,25 @@
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="9" spans="1:9">
+    <row r="9" ht="40.5" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1537,25 +1536,25 @@
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="10" spans="1:9">
+    <row r="10" ht="40.5" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -1566,25 +1565,25 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="11" spans="1:9">
+    <row r="11" ht="54" customHeight="1" spans="1:9">
       <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
@@ -1595,22 +1594,22 @@
         <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1618,31 +1617,31 @@
         <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="13" spans="1:9">
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1650,28 +1649,28 @@
         <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="14" spans="1:9">
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
@@ -1679,28 +1678,28 @@
         <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="44" r="15" spans="1:9">
+    <row r="15" ht="44" customHeight="1" spans="1:9">
       <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
@@ -1711,10 +1710,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
@@ -1723,13 +1722,13 @@
         <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="16" spans="1:9">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -1740,54 +1739,54 @@
         <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="27" r="17" spans="1:9">
+    <row r="17" ht="27" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="18" spans="1:9">
+    <row r="18" ht="40.5" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -1798,22 +1797,22 @@
         <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1852,8 +1851,8 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="G18:H18"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -236,9 +236,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowHeight="13050" windowWidth="24180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="1">
   <si>
     <t>产品编号：</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>#将检验合格的成品入库1</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -235,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -747,241 +750,241 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="14" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -995,10 +998,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1156,7 +1159,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1165,13 +1168,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1181,7 +1184,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1190,7 +1193,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1199,7 +1202,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1209,12 +1212,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1245,7 +1248,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1264,7 +1267,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1275,9 +1278,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
@@ -1285,20 +1288,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.75" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.5" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="7.375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="8.75" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row ht="27" r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1380,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:9">
+    <row ht="27" r="4" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:9">
+    <row ht="40.5" r="5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:9">
+    <row ht="27" r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:9">
+    <row ht="27" r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:9">
+    <row ht="27" r="8" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:9">
+    <row ht="40.5" r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:9">
+    <row ht="40.5" r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="54" customHeight="1" spans="1:9">
+    <row customHeight="1" ht="54" r="11" spans="1:9">
       <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:9">
+    <row ht="27" r="13" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:9">
+    <row ht="27" r="14" spans="1:9">
       <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="44" customHeight="1" spans="1:9">
+    <row customHeight="1" ht="44" r="15" spans="1:9">
       <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:9">
+    <row ht="40.5" r="16" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:9">
+    <row ht="27" r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="40.5" spans="1:9">
+    <row ht="40.5" r="18" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -1851,8 +1854,8 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="G18:H18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -1288,12 +1288,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="7.375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="8.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="27" r="1" spans="1:9">

--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13050" windowWidth="24180"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>产品编号：</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>#将检验合格的成品入库1</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
 </sst>
 </file>
@@ -238,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -253,9 +250,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,15 +331,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,14 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -306,33 +370,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,57 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -405,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +648,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,37 +721,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,30 +740,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -750,241 +747,241 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="14" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -998,10 +995,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1159,7 +1156,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1168,13 +1165,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1184,7 +1181,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1193,7 +1190,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1202,7 +1199,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1212,12 +1209,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1248,7 +1245,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1267,7 +1264,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1278,30 +1275,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:9">
+    <row r="1" ht="27" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1383,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="4" spans="1:9">
+    <row r="4" ht="27" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="5" spans="1:9">
+    <row r="5" ht="40.5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="6" spans="1:9">
+    <row r="6" ht="27" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="7" spans="1:9">
+    <row r="7" ht="27" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="8" spans="1:9">
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1528,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="9" spans="1:9">
+    <row r="9" ht="40.5" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="10" spans="1:9">
+    <row r="10" ht="40.5" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="11" spans="1:9">
+    <row r="11" ht="54" customHeight="1" spans="1:9">
       <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="13" spans="1:9">
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="14" spans="1:9">
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="44" r="15" spans="1:9">
+    <row r="15" ht="44" customHeight="1" spans="1:9">
       <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="16" spans="1:9">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="27" r="17" spans="1:9">
+    <row r="17" ht="27" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="40.5" r="18" spans="1:9">
+    <row r="18" ht="40.5" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -1854,8 +1851,8 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="G18:H18"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/EXCEL/随工单.xlsx
+++ b/src/main/resources/EXCEL/随工单.xlsx
@@ -19,7 +19,7 @@
     <t>产品编号：</t>
   </si>
   <si>
-    <t>@number</t>
+    <t>!number</t>
   </si>
   <si>
     <t>型号：</t>
@@ -250,14 +250,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,69 +326,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,17 +357,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,21 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,73 +402,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,109 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +648,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,11 +687,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,56 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -753,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
